--- a/biology/Biochimie/David_Veesler/David_Veesler.xlsx
+++ b/biology/Biochimie/David_Veesler/David_Veesler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Veesler est un biochimiste français et professeur adjoint au département de biochimie de l'université de Washington[1], où son groupe se concentre sur l'étude de la biologie structurale des maladies infectieuses[2]. Son équipe a récemment aidé à déterminer la structure de la glycoprotéine de pointe du SARS-CoV-2[3] utilisant des techniques de cryo-EM, et tente actuellement d'identifier par cristallographie aux rayons X[4] des anticorps neutralisants pour le SRAS-CoV-2 qui pourraient être utilisés comme traitement préventif contre le Covid-19 ou en thérapie post-exposition[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Veesler est un biochimiste français et professeur adjoint au département de biochimie de l'université de Washington, où son groupe se concentre sur l'étude de la biologie structurale des maladies infectieuses. Son équipe a récemment aidé à déterminer la structure de la glycoprotéine de pointe du SARS-CoV-2 utilisant des techniques de cryo-EM, et tente actuellement d'identifier par cristallographie aux rayons X des anticorps neutralisants pour le SRAS-CoV-2 qui pourraient être utilisés comme traitement préventif contre le Covid-19 ou en thérapie post-exposition. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Veesler a obtenu son doctorat de l'université d'Aix-Marseille en 2010, durant lequel il était chercheur invité à l'université de Zurich. Il rejoint ensuite l'Institut de recherche Scripps à La Jolla, en Californie en tant que chercheur postdoctoral de 2011 à 2014, avant de rejoindre l'université de Washington[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Veesler a obtenu son doctorat de l'université d'Aix-Marseille en 2010, durant lequel il était chercheur invité à l'université de Zurich. Il rejoint ensuite l'Institut de recherche Scripps à La Jolla, en Californie en tant que chercheur postdoctoral de 2011 à 2014, avant de rejoindre l'université de Washington. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2013 Bourse présidentielle de la Microscopy Society of America
 2012 Prix du Symposium de recherche d'automne du Scripps Research Institute
